--- a/InputData/web-app/BpTPEU/BTU per Total Primary Energy Unit.xlsx
+++ b/InputData/web-app/BpTPEU/BTU per Total Primary Energy Unit.xlsx
@@ -1,40 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/04ef14839acedddd/Pós-graduação/3 - Projetos/projeto EPS/Variáveis feitas/Variáveis marianne FINAL/web-app/BpTPEU/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\web-app\BpTPEU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{64E8FF5B-6CD1-45BB-835A-83B52665DD56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9CB11E86-4224-46E7-B1EE-B452E4B17214}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-16956" yWindow="684" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BpTPEU" sheetId="2" r:id="rId2"/>
+    <sheet name="BpTPEU-large" sheetId="2" r:id="rId2"/>
+    <sheet name="BpTPEU-small" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>BpTPEU BTU per Total Primary Energy Unit</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Source:</t>
   </si>
@@ -45,25 +32,34 @@
     <t>BTU</t>
   </si>
   <si>
-    <t>For the U.S., the unit for Total Primary Energy output is quadrillion BTU.</t>
-  </si>
-  <si>
     <t>none needed</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes  on the Brazilian adaptation: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">We assumed that the Total Primary Energy output is PJ for Brazil. </t>
-  </si>
-  <si>
-    <t>PJ</t>
+    <t>For the U.S.:</t>
+  </si>
+  <si>
+    <t>large primary energy output unit</t>
+  </si>
+  <si>
+    <t>small primary energy output unit</t>
+  </si>
+  <si>
+    <t>The large primary energy output unit (used in totals graphs) is: quadrillion BTU</t>
+  </si>
+  <si>
+    <t>The small primary energy output unit (used in energy intensity per unit GDP graphs) is: thousand BTU</t>
+  </si>
+  <si>
+    <t>BpTPEU BTU per Large Primary Energy Unit</t>
+  </si>
+  <si>
+    <t>BpTPEU BTU per Small Primary Energy Unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,18 +77,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,20 +97,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,7 +123,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -214,23 +198,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -266,23 +233,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -458,120 +408,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3">
-        <f>9.478*10^11</f>
-        <v>947800000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <f>10^15</f>
+        <v>1000000000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <f>10^3</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
     </row>
   </sheetData>
